--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2047.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2047.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.156667582147532</v>
+        <v>1.294434905052185</v>
       </c>
       <c r="B1">
-        <v>2.548104617839601</v>
+        <v>1.994203567504883</v>
       </c>
       <c r="C1">
-        <v>5.641677772517348</v>
+        <v>5.326944351196289</v>
       </c>
       <c r="D1">
-        <v>2.494999564656507</v>
+        <v>1.928382396697998</v>
       </c>
       <c r="E1">
-        <v>1.213444893762432</v>
+        <v>1.095526576042175</v>
       </c>
     </row>
   </sheetData>
